--- a/xmls/Garbages.xlsx
+++ b/xmls/Garbages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\StriveForFuture\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F0021-DBF6-49AF-B8FB-119F4A8BBC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DAD9617-F268-49C6-B46B-43C44A9AAAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{679E99CE-5AA3-42FE-B563-F37A0A736C5C}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <connection id="1" xr16:uid="{6F9AC19C-2F7B-4A4F-B71B-517709122881}" name="Garbages" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="\\Mac\Home\Desktop\Garbages.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" xr16:uid="{30496A8D-E509-44EC-8DF3-9E7FBC7612E2}" name="GarbagesRule" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{29CCE194-511E-4A2F-8112-65971807F360}" name="GarbagesRule" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="\\Mac\Home\Desktop\StriveForFuture\xmls\GarbagesRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -108,14 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>废弃食用油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房废弃的食用油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>落叶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>废弃期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废弃图书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厕所纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所废纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烟盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>餐厨垃圾袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他垃圾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>餐厅和厨房垃圾袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>镜子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +341,38 @@
   </si>
   <si>
     <t>鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃剩的菜叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用完了的牙膏管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃烟头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃完的椰子壳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,23 +426,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,22 +539,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB102986-F1EB-4C05-B6B0-893CE6160419}" name="表1" displayName="表1" ref="A1:E40" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="2">
-  <autoFilter ref="A1:E40" xr:uid="{0BE5320C-9CD4-44D9-B139-72FBF19C638D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A18304A-33F4-4BE5-98EB-0E2C9D645D05}" name="表1" displayName="表1" ref="A1:E40" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" connectionId="2">
+  <autoFilter ref="A1:E40" xr:uid="{404F780D-1D8A-49F7-84B0-BC341BF9EAAE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C801ED6B-FFEB-49CD-9D56-7532F03A0CB7}" uniqueName="id" name="id">
+    <tableColumn id="1" xr3:uid="{D6ED5626-1CE0-4CAC-AFD7-5C14D3D89F2B}" uniqueName="id" name="id" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/root/Garbage/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4629B7CA-5892-4B26-B4CF-266D034A4D1E}" uniqueName="name" name="name">
+    <tableColumn id="2" xr3:uid="{14F75EAC-6804-40B3-B11F-3707E35A0DAE}" uniqueName="name" name="name" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/root/Garbage/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{046F5DD8-862A-4FD9-9C4D-D91162639BCB}" uniqueName="type" name="type">
+    <tableColumn id="3" xr3:uid="{7342F479-AFE7-4F96-84C3-8ADF86C03DF0}" uniqueName="type" name="type" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/root/Garbage/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F926A613-BA94-4C2A-AC8F-5FCB50D4A65F}" uniqueName="maxCount" name="maxCount">
+    <tableColumn id="4" xr3:uid="{45CCFBB8-1816-4067-84A7-11F6AB7848A1}" uniqueName="maxCount" name="maxCount" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/root/Garbage/@maxCount" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D5995BAC-90BE-416E-BC52-16B15C016E65}" uniqueName="description" name="description">
+    <tableColumn id="5" xr3:uid="{DEB5709C-8F3B-474D-B2D0-B22574F5E59B}" uniqueName="description" name="description" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/root/Garbage/@description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -837,667 +891,667 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="E35" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
